--- a/testData.xlsx
+++ b/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanang^faisal\intelJWorkSpace\Perseorangan-Positif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1381DDE-AC27-4025-BC18-45B4680271F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E16646-09F4-480E-918C-09065FD30A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Nomor_Aplikasi</t>
   </si>
@@ -106,22 +106,25 @@
     <t>TimeStamp</t>
   </si>
   <si>
-    <t>100520</t>
-  </si>
-  <si>
-    <t>L000004</t>
-  </si>
-  <si>
-    <t>24PL004</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>FoggyIDV</t>
-  </si>
-  <si>
-    <t>123041</t>
+    <t>SnowyIDV</t>
+  </si>
+  <si>
+    <t>084939</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>194645</t>
+  </si>
+  <si>
+    <t>195902</t>
+  </si>
+  <si>
+    <t>195952</t>
+  </si>
+  <si>
+    <t>200018</t>
   </si>
 </sst>
 </file>
@@ -724,7 +727,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -756,19 +759,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
